--- a/system_cases/Dome/Dome_2IBR_A2_detuned.xlsx
+++ b/system_cases/Dome/Dome_2IBR_A2_detuned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\system_cases\IMR_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\system_cases\Dome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA3F17-74E7-49F9-9407-E343101A0747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682EEA0C-E016-47BE-8233-EB569D41D09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3405" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1008,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G8"/>
+      <selection activeCell="A4" sqref="A4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,7 +1068,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4">
@@ -1091,7 +1091,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5">
@@ -1114,7 +1114,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6">
@@ -1131,14 +1131,14 @@
       <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E7">
         <v>0.3</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1154,16 +1154,62 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E8">
         <v>0.3</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
@@ -1176,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="A8" sqref="A8:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1245,9 +1291,6 @@
     </row>
     <row r="10" spans="1:7">
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/system_cases/Dome/Dome_2IBR_A2_detuned.xlsx
+++ b/system_cases/Dome/Dome_2IBR_A2_detuned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\system_cases\Dome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y_zhu\Documents\GitHub\Simplus-Grid-Tool\system_cases\Dome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682EEA0C-E016-47BE-8233-EB569D41D09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0339A0B0-CA16-40AA-849D-E00D8A20559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
@@ -845,20 +845,20 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -952,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1014,9 +1014,9 @@
       <selection activeCell="A4" sqref="A4:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1228,7 +1228,7 @@
       <selection activeCell="A8" sqref="A8:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
@@ -1307,12 +1307,12 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1370,12 +1370,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/system_cases/Dome/Dome_2IBR_A2_detuned.xlsx
+++ b/system_cases/Dome/Dome_2IBR_A2_detuned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y_zhu\Documents\GitHub\Simplus-Grid-Tool\system_cases\Dome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\system_cases\Dome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0339A0B0-CA16-40AA-849D-E00D8A20559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7421BC9-F9F0-4273-B3A8-63C01855C7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -628,10 +628,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
@@ -844,21 +844,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1010,13 +1010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1065,7 +1065,7 @@
       <c r="D4">
         <v>0.3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
@@ -1088,7 +1088,7 @@
       <c r="D5">
         <v>0.3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
@@ -1111,7 +1111,7 @@
       <c r="D6">
         <v>0.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
@@ -1228,7 +1228,7 @@
       <selection activeCell="A8" sqref="A8:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
@@ -1307,12 +1307,12 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1373,9 +1373,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
